--- a/templates/production_order_template.xlsx
+++ b/templates/production_order_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16AC67-B3F7-4CEE-B0E6-C6DFFDE8DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B96507C-3592-4867-AE0A-F7B4CF62ADDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t xml:space="preserve">Lần soạn lệnh: </t>
   </si>
   <si>
-    <t xml:space="preserve"> FOB</t>
-  </si>
-  <si>
     <t>Cước tàu:</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   <si>
     <t>{{Contract__c.Production_Order_Number__c}}
  ({{Contract__c.Name}})</t>
+  </si>
+  <si>
+    <t>{{Contract__c.Terms_of_Sale__c}}</t>
   </si>
 </sst>
 </file>
@@ -483,137 +483,137 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,206 +933,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="32"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="42" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25">
         <v>1</v>
       </c>
-      <c r="O3" s="44"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="39" t="s">
+      <c r="A4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="39" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="39" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="45" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="26"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="49"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1160,8 @@
       <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1245,36 +1245,28 @@
       <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:D2"/>
@@ -1291,12 +1283,20 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/production_order_template.xlsx
+++ b/templates/production_order_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B96507C-3592-4867-AE0A-F7B4CF62ADDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CAED00-622E-499A-873C-EF0047E38B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,11 +146,6 @@
     <t>{{Cont__c}}</t>
   </si>
   <si>
-    <t>{{Packing__c
-\#0}}
-viên/kiện</t>
-  </si>
-  <si>
     <t>{{Delivery_Date__c\@dd/MM/yyyy}}{{TableEnd:ProPlanProduct}}</t>
   </si>
   <si>
@@ -237,6 +232,10 @@
   </si>
   <si>
     <t>{{Contract__c.Terms_of_Sale__c}}</t>
+  </si>
+  <si>
+    <t>{{Packing__c}}
+viên/kiện</t>
   </si>
 </sst>
 </file>
@@ -465,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,9 +482,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -506,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,13 +606,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,45 +951,45 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="37"/>
       <c r="E2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="21"/>
       <c r="N2" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="46"/>
       <c r="J3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -1003,20 +1001,20 @@
     </row>
     <row r="4" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
       <c r="E4" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="30"/>
       <c r="J4" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
@@ -1028,70 +1026,70 @@
     </row>
     <row r="5" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="40"/>
       <c r="E5" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="28"/>
       <c r="J5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="42"/>
-      <c r="E6" s="8" t="s">
-        <v>56</v>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="14"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="16"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="52" t="s">
-        <v>62</v>
+      <c r="N7" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="O7" s="15"/>
     </row>
@@ -1111,16 +1109,16 @@
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="48" t="s">
         <v>9</v>
       </c>
@@ -1204,10 +1202,10 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="69" x14ac:dyDescent="0.3">
@@ -1215,53 +1213,52 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
     <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="H8:M8"/>
@@ -1290,13 +1287,11 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H15:L15"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
